--- a/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003610767971109</v>
+        <v>1.003610767971107</v>
       </c>
       <c r="D2">
-        <v>1.021289963266342</v>
+        <v>1.021289963266341</v>
       </c>
       <c r="E2">
-        <v>1.013825822305068</v>
+        <v>1.013825822305067</v>
       </c>
       <c r="F2">
-        <v>1.016828311515073</v>
+        <v>1.016828311515071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047321383197938</v>
+        <v>1.047321383197937</v>
       </c>
       <c r="J2">
-        <v>1.025684015345198</v>
+        <v>1.025684015345196</v>
       </c>
       <c r="K2">
-        <v>1.032460453882427</v>
+        <v>1.032460453882426</v>
       </c>
       <c r="L2">
-        <v>1.025095844079523</v>
+        <v>1.025095844079521</v>
       </c>
       <c r="M2">
-        <v>1.028058075740957</v>
+        <v>1.028058075740955</v>
       </c>
       <c r="N2">
-        <v>1.027140604294589</v>
+        <v>1.027140604294587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,13 +462,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01373194322797</v>
+        <v>1.013731943227971</v>
       </c>
       <c r="D3">
-        <v>1.029129726030538</v>
+        <v>1.029129726030539</v>
       </c>
       <c r="E3">
-        <v>1.022988774893801</v>
+        <v>1.022988774893802</v>
       </c>
       <c r="F3">
         <v>1.026835999016765</v>
@@ -480,19 +480,19 @@
         <v>1.050809050507514</v>
       </c>
       <c r="J3">
-        <v>1.033855135056497</v>
+        <v>1.033855135056498</v>
       </c>
       <c r="K3">
-        <v>1.039402974488716</v>
+        <v>1.039402974488717</v>
       </c>
       <c r="L3">
-        <v>1.033335722780269</v>
+        <v>1.03333572278027</v>
       </c>
       <c r="M3">
         <v>1.037136647253569</v>
       </c>
       <c r="N3">
-        <v>1.035323327933119</v>
+        <v>1.03532332793312</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020021030103322</v>
+        <v>1.020021030103323</v>
       </c>
       <c r="D4">
-        <v>1.034002999790499</v>
+        <v>1.0340029997905</v>
       </c>
       <c r="E4">
-        <v>1.028684959591441</v>
+        <v>1.028684959591442</v>
       </c>
       <c r="F4">
-        <v>1.03306145890614</v>
+        <v>1.033061458906141</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.052958494288936</v>
       </c>
       <c r="J4">
-        <v>1.038926100319123</v>
+        <v>1.038926100319124</v>
       </c>
       <c r="K4">
-        <v>1.043707653985651</v>
+        <v>1.043707653985652</v>
       </c>
       <c r="L4">
-        <v>1.038449083175728</v>
+        <v>1.038449083175729</v>
       </c>
       <c r="M4">
-        <v>1.042776587072785</v>
+        <v>1.042776587072786</v>
       </c>
       <c r="N4">
-        <v>1.040401494548065</v>
+        <v>1.040401494548067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022607409192675</v>
+        <v>1.022607409192676</v>
       </c>
       <c r="D5">
         <v>1.036007379096364</v>
       </c>
       <c r="E5">
-        <v>1.031028013294464</v>
+        <v>1.031028013294466</v>
       </c>
       <c r="F5">
-        <v>1.03562324594764</v>
+        <v>1.035623245947641</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.053838108195438</v>
       </c>
       <c r="J5">
-        <v>1.041009909791856</v>
+        <v>1.041009909791857</v>
       </c>
       <c r="K5">
         <v>1.045475607059056</v>
       </c>
       <c r="L5">
-        <v>1.040550257364352</v>
+        <v>1.040550257364353</v>
       </c>
       <c r="M5">
-        <v>1.045095618311811</v>
+        <v>1.045095618311812</v>
       </c>
       <c r="N5">
-        <v>1.042488263269266</v>
+        <v>1.042488263269267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023038424703794</v>
+        <v>1.023038424703796</v>
       </c>
       <c r="D6">
-        <v>1.036341415195143</v>
+        <v>1.036341415195145</v>
       </c>
       <c r="E6">
-        <v>1.031418506092723</v>
+        <v>1.031418506092725</v>
       </c>
       <c r="F6">
-        <v>1.036050253750721</v>
+        <v>1.036050253750723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053984436290505</v>
+        <v>1.053984436290506</v>
       </c>
       <c r="J6">
-        <v>1.041357075441158</v>
+        <v>1.041357075441159</v>
       </c>
       <c r="K6">
-        <v>1.045770092290539</v>
+        <v>1.045770092290541</v>
       </c>
       <c r="L6">
-        <v>1.040900312943113</v>
+        <v>1.040900312943114</v>
       </c>
       <c r="M6">
-        <v>1.045482055947822</v>
+        <v>1.045482055947824</v>
       </c>
       <c r="N6">
-        <v>1.042835921933611</v>
+        <v>1.042835921933612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020055809788279</v>
+        <v>1.020055809788276</v>
       </c>
       <c r="D7">
-        <v>1.03402995241001</v>
+        <v>1.034029952410008</v>
       </c>
       <c r="E7">
-        <v>1.028716465339852</v>
+        <v>1.02871646533985</v>
       </c>
       <c r="F7">
-        <v>1.033095901749307</v>
+        <v>1.033095901749304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052970340012928</v>
+        <v>1.052970340012927</v>
       </c>
       <c r="J7">
-        <v>1.038954128349331</v>
+        <v>1.038954128349329</v>
       </c>
       <c r="K7">
-        <v>1.043731437526824</v>
+        <v>1.043731437526823</v>
       </c>
       <c r="L7">
-        <v>1.038477344980197</v>
+        <v>1.038477344980195</v>
       </c>
       <c r="M7">
-        <v>1.042807773293851</v>
+        <v>1.042807773293849</v>
       </c>
       <c r="N7">
-        <v>1.040429562381291</v>
+        <v>1.040429562381289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007088108617316</v>
+        <v>1.007088108617315</v>
       </c>
       <c r="D8">
         <v>1.02398297330869</v>
       </c>
       <c r="E8">
-        <v>1.016973345136365</v>
+        <v>1.016973345136364</v>
       </c>
       <c r="F8">
-        <v>1.020265143852177</v>
+        <v>1.020265143852176</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048523352003283</v>
+        <v>1.048523352003282</v>
       </c>
       <c r="J8">
         <v>1.02849267901415</v>
       </c>
       <c r="K8">
-        <v>1.034847591310133</v>
+        <v>1.034847591310132</v>
       </c>
       <c r="L8">
-        <v>1.027928207118756</v>
+        <v>1.027928207118755</v>
       </c>
       <c r="M8">
         <v>1.031177433120021</v>
       </c>
       <c r="N8">
-        <v>1.02995325658811</v>
+        <v>1.029953256588109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819996875711178</v>
+        <v>0.9819996875711182</v>
       </c>
       <c r="D9">
         <v>1.004570368807542</v>
       </c>
       <c r="E9">
-        <v>0.9942806399514528</v>
+        <v>0.9942806399514532</v>
       </c>
       <c r="F9">
-        <v>0.9955034696133171</v>
+        <v>0.9955034696133176</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1.017589727634116</v>
       </c>
       <c r="L9">
-        <v>1.007467196386543</v>
+        <v>1.007467196386544</v>
       </c>
       <c r="M9">
         <v>1.008669923605381</v>
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9633524281865881</v>
+        <v>0.9633524281865909</v>
       </c>
       <c r="D10">
-        <v>0.9901762068504198</v>
+        <v>0.9901762068504222</v>
       </c>
       <c r="E10">
-        <v>0.9774420701428068</v>
+        <v>0.9774420701428094</v>
       </c>
       <c r="F10">
-        <v>0.9771495323878161</v>
+        <v>0.9771495323878188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033186443808519</v>
+        <v>1.03318644380852</v>
       </c>
       <c r="J10">
-        <v>0.9930994817066241</v>
+        <v>0.9930994817066268</v>
       </c>
       <c r="K10">
-        <v>1.004725127533763</v>
+        <v>1.004725127533765</v>
       </c>
       <c r="L10">
-        <v>0.9922309201027769</v>
+        <v>0.9922309201027792</v>
       </c>
       <c r="M10">
-        <v>0.9919439903709301</v>
+        <v>0.9919439903709325</v>
       </c>
       <c r="N10">
-        <v>0.99450979688075</v>
+        <v>0.9945097968807527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9547005541318413</v>
+        <v>0.9547005541318393</v>
       </c>
       <c r="D11">
-        <v>0.9835107369227865</v>
+        <v>0.9835107369227853</v>
       </c>
       <c r="E11">
-        <v>0.9696389054678249</v>
+        <v>0.9696389054678232</v>
       </c>
       <c r="F11">
-        <v>0.9686480584733755</v>
+        <v>0.9686480584733739</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030109118412992</v>
+        <v>1.030109118412991</v>
       </c>
       <c r="J11">
-        <v>0.9860872952326343</v>
+        <v>0.9860872952326324</v>
       </c>
       <c r="K11">
-        <v>0.9987504632875992</v>
+        <v>0.9987504632875979</v>
       </c>
       <c r="L11">
-        <v>0.9851570362928878</v>
+        <v>0.9851570362928861</v>
       </c>
       <c r="M11">
-        <v>0.9841864779008029</v>
+        <v>0.9841864779008013</v>
       </c>
       <c r="N11">
-        <v>0.9874876522976581</v>
+        <v>0.9874876522976563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.951386854418854</v>
+        <v>0.9513868544188536</v>
       </c>
       <c r="D12">
-        <v>0.9809603108305334</v>
+        <v>0.9809603108305335</v>
       </c>
       <c r="E12">
-        <v>0.9666519996516985</v>
+        <v>0.9666519996516981</v>
       </c>
       <c r="F12">
-        <v>0.9653943554979038</v>
+        <v>0.9653943554979033</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1.028927820121993</v>
       </c>
       <c r="J12">
-        <v>0.9834012696293946</v>
+        <v>0.9834012696293943</v>
       </c>
       <c r="K12">
-        <v>0.9964616035729907</v>
+        <v>0.9964616035729909</v>
       </c>
       <c r="L12">
-        <v>0.9824472511669068</v>
+        <v>0.9824472511669065</v>
       </c>
       <c r="M12">
-        <v>0.9812159959968817</v>
+        <v>0.9812159959968814</v>
       </c>
       <c r="N12">
         <v>0.9847978122299704</v>
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9521024256871616</v>
+        <v>0.9521024256871611</v>
       </c>
       <c r="D13">
-        <v>0.9815109376390192</v>
+        <v>0.981510937639019</v>
       </c>
       <c r="E13">
-        <v>0.9672969182449952</v>
+        <v>0.9672969182449945</v>
       </c>
       <c r="F13">
-        <v>0.9660968586449248</v>
+        <v>0.9660968586449246</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.029183029737525</v>
       </c>
       <c r="J13">
-        <v>0.983981309412413</v>
+        <v>0.9839813094124127</v>
       </c>
       <c r="K13">
-        <v>0.9969558858851812</v>
+        <v>0.996955885885181</v>
       </c>
       <c r="L13">
-        <v>0.9830324276197869</v>
+        <v>0.9830324276197863</v>
       </c>
       <c r="M13">
-        <v>0.9818574169822688</v>
+        <v>0.9818574169822684</v>
       </c>
       <c r="N13">
-        <v>0.9853786757360125</v>
+        <v>0.9853786757360122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544287702226206</v>
+        <v>0.9544287702226203</v>
       </c>
       <c r="D14">
-        <v>0.9833015021740819</v>
+        <v>0.9833015021740816</v>
       </c>
       <c r="E14">
-        <v>0.9693938876161723</v>
+        <v>0.969393887616172</v>
       </c>
       <c r="F14">
-        <v>0.9683811454932599</v>
+        <v>0.9683811454932592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03001228284609</v>
+        <v>1.030012282846089</v>
       </c>
       <c r="J14">
-        <v>0.985866997208424</v>
+        <v>0.9858669972084235</v>
       </c>
       <c r="K14">
-        <v>0.9985627437851791</v>
+        <v>0.9985627437851788</v>
       </c>
       <c r="L14">
-        <v>0.9849347922138457</v>
+        <v>0.9849347922138453</v>
       </c>
       <c r="M14">
-        <v>0.9839428289752701</v>
+        <v>0.9839428289752695</v>
       </c>
       <c r="N14">
-        <v>0.9872670414249852</v>
+        <v>0.9872670414249846</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558484084930641</v>
+        <v>0.9558484084930644</v>
       </c>
       <c r="D15">
-        <v>0.9843945239420528</v>
+        <v>0.9843945239420532</v>
       </c>
       <c r="E15">
         <v>0.9706737879727805</v>
       </c>
       <c r="F15">
-        <v>0.9697754392471662</v>
+        <v>0.9697754392471665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030517987985252</v>
+        <v>1.030517987985253</v>
       </c>
       <c r="J15">
-        <v>0.9870176918186516</v>
+        <v>0.9870176918186521</v>
       </c>
       <c r="K15">
-        <v>0.9995432595896597</v>
+        <v>0.9995432595896602</v>
       </c>
       <c r="L15">
-        <v>0.9860956465838875</v>
+        <v>0.9860956465838878</v>
       </c>
       <c r="M15">
-        <v>0.9852155355288764</v>
+        <v>0.9852155355288768</v>
       </c>
       <c r="N15">
-        <v>0.9884193701535458</v>
+        <v>0.9884193701535461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639133923974291</v>
+        <v>0.9639133923974299</v>
       </c>
       <c r="D16">
-        <v>0.9906086857912875</v>
+        <v>0.9906086857912884</v>
       </c>
       <c r="E16">
-        <v>0.9779482251720283</v>
+        <v>0.9779482251720287</v>
       </c>
       <c r="F16">
-        <v>0.9777010570815208</v>
+        <v>0.977701057081521</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.033385592112513</v>
       </c>
       <c r="J16">
-        <v>0.9935540737277802</v>
+        <v>0.9935540737277808</v>
       </c>
       <c r="K16">
-        <v>1.005112415939537</v>
+        <v>1.005112415939538</v>
       </c>
       <c r="L16">
-        <v>0.9926894952934677</v>
+        <v>0.9926894952934683</v>
       </c>
       <c r="M16">
         <v>0.9924470447660666</v>
       </c>
       <c r="N16">
-        <v>0.9949650344747185</v>
+        <v>0.9949650344747194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9688092585683933</v>
+        <v>0.968809258568393</v>
       </c>
       <c r="D17">
         <v>0.9943846898176215</v>
       </c>
       <c r="E17">
-        <v>0.9823668281481354</v>
+        <v>0.9823668281481353</v>
       </c>
       <c r="F17">
-        <v>0.9825161545504351</v>
+        <v>0.9825161545504346</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.035121550557787</v>
       </c>
       <c r="J17">
-        <v>0.997521164569465</v>
+        <v>0.9975211645694649</v>
       </c>
       <c r="K17">
         <v>1.008491897364931</v>
       </c>
       <c r="L17">
-        <v>0.9966912597415369</v>
+        <v>0.9966912597415368</v>
       </c>
       <c r="M17">
-        <v>0.996837844585414</v>
+        <v>0.9968378445854136</v>
       </c>
       <c r="N17">
-        <v>0.9989377590404306</v>
+        <v>0.9989377590404303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716102464648583</v>
+        <v>0.9716102464648562</v>
       </c>
       <c r="D18">
-        <v>0.9965461627525328</v>
+        <v>0.9965461627525313</v>
       </c>
       <c r="E18">
-        <v>0.9848956263691319</v>
+        <v>0.9848956263691301</v>
       </c>
       <c r="F18">
-        <v>0.9852722394098202</v>
+        <v>0.985272239409818</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036112911400466</v>
+        <v>1.036112911400465</v>
       </c>
       <c r="J18">
-        <v>0.9997904165685182</v>
+        <v>0.9997904165685162</v>
       </c>
       <c r="K18">
-        <v>1.010424781441922</v>
+        <v>1.01042478144192</v>
       </c>
       <c r="L18">
-        <v>0.9989802759042815</v>
+        <v>0.99898027590428</v>
       </c>
       <c r="M18">
-        <v>0.9993501298284604</v>
+        <v>0.9993501298284584</v>
       </c>
       <c r="N18">
-        <v>1.001210233637609</v>
+        <v>1.001210233637607</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725563913130297</v>
+        <v>0.9725563913130267</v>
       </c>
       <c r="D19">
-        <v>0.9972764715942847</v>
+        <v>0.997276471594282</v>
       </c>
       <c r="E19">
-        <v>0.9857499661253647</v>
+        <v>0.9857499661253616</v>
       </c>
       <c r="F19">
-        <v>0.9862034316534714</v>
+        <v>0.9862034316534682</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036447470926947</v>
+        <v>1.036447470926946</v>
       </c>
       <c r="J19">
-        <v>1.000556877168125</v>
+        <v>1.000556877168122</v>
       </c>
       <c r="K19">
-        <v>1.011077586024651</v>
+        <v>1.011077586024649</v>
       </c>
       <c r="L19">
-        <v>0.9997534005410791</v>
+        <v>0.9997534005410762</v>
       </c>
       <c r="M19">
-        <v>1.000198790581774</v>
+        <v>1.000198790581771</v>
       </c>
       <c r="N19">
-        <v>1.001977782699182</v>
+        <v>1.001977782699178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9682897216008657</v>
+        <v>0.9682897216008648</v>
       </c>
       <c r="D20">
-        <v>0.9939838643543216</v>
+        <v>0.9939838643543212</v>
       </c>
       <c r="E20">
-        <v>0.9818978457348089</v>
+        <v>0.9818978457348085</v>
       </c>
       <c r="F20">
-        <v>0.9820050509421127</v>
+        <v>0.9820050509421123</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.034937521455438</v>
       </c>
       <c r="J20">
-        <v>0.9971002240780994</v>
+        <v>0.9971002240780984</v>
       </c>
       <c r="K20">
         <v>1.008133331631634</v>
       </c>
       <c r="L20">
-        <v>0.9962666474577411</v>
+        <v>0.9962666474577404</v>
       </c>
       <c r="M20">
-        <v>0.9963718762005594</v>
+        <v>0.9963718762005589</v>
       </c>
       <c r="N20">
-        <v>0.9985162207652843</v>
+        <v>0.9985162207652837</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9537466019878036</v>
+        <v>0.953746601987805</v>
       </c>
       <c r="D21">
-        <v>0.9827763717254669</v>
+        <v>0.9827763717254682</v>
       </c>
       <c r="E21">
-        <v>0.96877893022123</v>
+        <v>0.9687789302212311</v>
       </c>
       <c r="F21">
-        <v>0.9677112423947467</v>
+        <v>0.9677112423947478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02976918695608</v>
+        <v>1.029769186956081</v>
       </c>
       <c r="J21">
-        <v>0.9853140523555443</v>
+        <v>0.9853140523555453</v>
       </c>
       <c r="K21">
-        <v>0.9980915668732914</v>
+        <v>0.9980915668732925</v>
       </c>
       <c r="L21">
-        <v>0.9843769607289936</v>
+        <v>0.9843769607289947</v>
       </c>
       <c r="M21">
-        <v>0.9833312902753724</v>
+        <v>0.9833312902753738</v>
       </c>
       <c r="N21">
-        <v>0.9867133113269904</v>
+        <v>0.9867133113269916</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.944015175969587</v>
+        <v>0.9440151759695858</v>
       </c>
       <c r="D22">
-        <v>0.9752918660415967</v>
+        <v>0.9752918660415961</v>
       </c>
       <c r="E22">
-        <v>0.9600109286586547</v>
+        <v>0.9600109286586536</v>
       </c>
       <c r="F22">
-        <v>0.9581609051100735</v>
+        <v>0.9581609051100723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026295238794056</v>
+        <v>1.026295238794055</v>
       </c>
       <c r="J22">
-        <v>0.9774256213316479</v>
+        <v>0.9774256213316469</v>
       </c>
       <c r="K22">
-        <v>0.9913692175271467</v>
+        <v>0.9913692175271461</v>
       </c>
       <c r="L22">
-        <v>0.9764184982094705</v>
+        <v>0.9764184982094692</v>
       </c>
       <c r="M22">
-        <v>0.9746094047878706</v>
+        <v>0.9746094047878694</v>
       </c>
       <c r="N22">
-        <v>0.9788136778262249</v>
+        <v>0.9788136778262236</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9492349529252816</v>
+        <v>0.9492349529252785</v>
       </c>
       <c r="D23">
-        <v>0.9793048462906661</v>
+        <v>0.9793048462906637</v>
       </c>
       <c r="E23">
-        <v>0.964712850092881</v>
+        <v>0.9647128500928783</v>
       </c>
       <c r="F23">
-        <v>0.9632821257587135</v>
+        <v>0.9632821257587105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028159969708175</v>
+        <v>1.028159969708173</v>
       </c>
       <c r="J23">
-        <v>0.9816569181184669</v>
+        <v>0.9816569181184641</v>
       </c>
       <c r="K23">
-        <v>0.994975123198103</v>
+        <v>0.9949751231981006</v>
       </c>
       <c r="L23">
-        <v>0.9806874328019711</v>
+        <v>0.9806874328019685</v>
       </c>
       <c r="M23">
-        <v>0.979287202996479</v>
+        <v>0.9792872029964761</v>
       </c>
       <c r="N23">
-        <v>0.9830509835398177</v>
+        <v>0.9830509835398148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9685246460236655</v>
+        <v>0.9685246460236672</v>
       </c>
       <c r="D24">
-        <v>0.9941651061476788</v>
+        <v>0.9941651061476803</v>
       </c>
       <c r="E24">
-        <v>0.9821099077265779</v>
+        <v>0.9821099077265795</v>
       </c>
       <c r="F24">
-        <v>0.9822361579147723</v>
+        <v>0.9822361579147739</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.035020741438905</v>
       </c>
       <c r="J24">
-        <v>0.9972905662838969</v>
+        <v>0.9972905662838984</v>
       </c>
       <c r="K24">
-        <v>1.008295469790898</v>
+        <v>1.008295469790899</v>
       </c>
       <c r="L24">
-        <v>0.9964586502028719</v>
+        <v>0.9964586502028732</v>
       </c>
       <c r="M24">
-        <v>0.996582577192168</v>
+        <v>0.9965825771921696</v>
       </c>
       <c r="N24">
-        <v>0.9987068332788469</v>
+        <v>0.998706833278848</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,7 +1364,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887892663133098</v>
+        <v>0.9887892663133099</v>
       </c>
       <c r="D25">
         <v>1.009819503631593</v>

--- a/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003610767971107</v>
+        <v>1.001630357650617</v>
       </c>
       <c r="D2">
-        <v>1.021289963266341</v>
+        <v>1.018665877677289</v>
       </c>
       <c r="E2">
-        <v>1.013825822305067</v>
+        <v>1.01652438904007</v>
       </c>
       <c r="F2">
-        <v>1.016828311515071</v>
+        <v>1.025025670009779</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047321383197937</v>
+        <v>1.045989332817624</v>
       </c>
       <c r="J2">
-        <v>1.025684015345196</v>
+        <v>1.023762414110451</v>
       </c>
       <c r="K2">
-        <v>1.032460453882426</v>
+        <v>1.029871150666076</v>
       </c>
       <c r="L2">
-        <v>1.025095844079521</v>
+        <v>1.0277582146882</v>
       </c>
       <c r="M2">
-        <v>1.028058075740955</v>
+        <v>1.036147028669145</v>
       </c>
       <c r="N2">
-        <v>1.027140604294587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011490300832118</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037180331250457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013731943227971</v>
+        <v>1.00667006387934</v>
       </c>
       <c r="D3">
-        <v>1.029129726030539</v>
+        <v>1.022290393668436</v>
       </c>
       <c r="E3">
-        <v>1.022988774893802</v>
+        <v>1.020529179470102</v>
       </c>
       <c r="F3">
-        <v>1.026835999016765</v>
+        <v>1.028790943975523</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050809050507514</v>
+        <v>1.047333226237769</v>
       </c>
       <c r="J3">
-        <v>1.033855135056498</v>
+        <v>1.026980533147521</v>
       </c>
       <c r="K3">
-        <v>1.039402974488717</v>
+        <v>1.032645792677641</v>
       </c>
       <c r="L3">
-        <v>1.03333572278027</v>
+        <v>1.030905954784528</v>
       </c>
       <c r="M3">
-        <v>1.037136647253569</v>
+        <v>1.039068229829683</v>
       </c>
       <c r="N3">
-        <v>1.03532332793312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012597859979559</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039492273078218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020021030103323</v>
+        <v>1.009855456598936</v>
       </c>
       <c r="D4">
-        <v>1.0340029997905</v>
+        <v>1.024580508598416</v>
       </c>
       <c r="E4">
-        <v>1.028684959591442</v>
+        <v>1.023067175251825</v>
       </c>
       <c r="F4">
-        <v>1.033061458906141</v>
+        <v>1.031181140640337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052958494288936</v>
+        <v>1.048166312395304</v>
       </c>
       <c r="J4">
-        <v>1.038926100319124</v>
+        <v>1.029010374977265</v>
       </c>
       <c r="K4">
-        <v>1.043707653985652</v>
+        <v>1.034391050921566</v>
       </c>
       <c r="L4">
-        <v>1.038449083175729</v>
+        <v>1.032894948340273</v>
       </c>
       <c r="M4">
-        <v>1.042776587072786</v>
+        <v>1.040917256462924</v>
       </c>
       <c r="N4">
-        <v>1.040401494548067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013295936172237</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040955654246143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022607409192676</v>
+        <v>1.011177172741773</v>
       </c>
       <c r="D5">
-        <v>1.036007379096364</v>
+        <v>1.025530479935734</v>
       </c>
       <c r="E5">
-        <v>1.031028013294466</v>
+        <v>1.024121826889564</v>
       </c>
       <c r="F5">
-        <v>1.035623245947641</v>
+        <v>1.032175323585389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053838108195438</v>
+        <v>1.048507997646085</v>
       </c>
       <c r="J5">
-        <v>1.041009909791857</v>
+        <v>1.029851561263368</v>
       </c>
       <c r="K5">
-        <v>1.045475607059056</v>
+        <v>1.035113109989371</v>
       </c>
       <c r="L5">
-        <v>1.040550257364353</v>
+        <v>1.033720058167643</v>
       </c>
       <c r="M5">
-        <v>1.045095618311812</v>
+        <v>1.04168506494457</v>
       </c>
       <c r="N5">
-        <v>1.042488263269267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013585094317724</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041563322539947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023038424703796</v>
+        <v>1.011398092179042</v>
       </c>
       <c r="D6">
-        <v>1.036341415195145</v>
+        <v>1.025689245886082</v>
       </c>
       <c r="E6">
-        <v>1.031418506092725</v>
+        <v>1.024298197773218</v>
       </c>
       <c r="F6">
-        <v>1.036050253750723</v>
+        <v>1.032341637704355</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053984436290506</v>
+        <v>1.048564872516206</v>
       </c>
       <c r="J6">
-        <v>1.041357075441159</v>
+        <v>1.029992098575808</v>
       </c>
       <c r="K6">
-        <v>1.045770092290541</v>
+        <v>1.035233673722629</v>
       </c>
       <c r="L6">
-        <v>1.040900312943114</v>
+        <v>1.033857959699952</v>
       </c>
       <c r="M6">
-        <v>1.045482055947824</v>
+        <v>1.041813434454163</v>
       </c>
       <c r="N6">
-        <v>1.042835921933612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013633396165525</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041664918243149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020055809788276</v>
+        <v>1.009873185017564</v>
       </c>
       <c r="D7">
-        <v>1.034029952410008</v>
+        <v>1.024593251890368</v>
       </c>
       <c r="E7">
-        <v>1.02871646533985</v>
+        <v>1.023081315389272</v>
       </c>
       <c r="F7">
-        <v>1.033095901749304</v>
+        <v>1.031194466314534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052970340012927</v>
+        <v>1.048170911333031</v>
       </c>
       <c r="J7">
-        <v>1.038954128349329</v>
+        <v>1.029021662202282</v>
       </c>
       <c r="K7">
-        <v>1.043731437526823</v>
+        <v>1.034400744425287</v>
       </c>
       <c r="L7">
-        <v>1.038477344980195</v>
+        <v>1.03290601647817</v>
       </c>
       <c r="M7">
-        <v>1.042807773293849</v>
+        <v>1.040927552939481</v>
       </c>
       <c r="N7">
-        <v>1.040429562381289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013299816688874</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040963803211786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007088108617315</v>
+        <v>1.003349634882459</v>
       </c>
       <c r="D8">
-        <v>1.02398297330869</v>
+        <v>1.019902487109767</v>
       </c>
       <c r="E8">
-        <v>1.016973345136364</v>
+        <v>1.017889159748525</v>
       </c>
       <c r="F8">
-        <v>1.020265143852176</v>
+        <v>1.026307974028477</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048523352003282</v>
+        <v>1.046451186928521</v>
       </c>
       <c r="J8">
-        <v>1.02849267901415</v>
+        <v>1.024861115549544</v>
       </c>
       <c r="K8">
-        <v>1.034847591310132</v>
+        <v>1.030819449754816</v>
       </c>
       <c r="L8">
-        <v>1.027928207118755</v>
+        <v>1.028832142932834</v>
       </c>
       <c r="M8">
-        <v>1.031177433120021</v>
+        <v>1.037142999273719</v>
       </c>
       <c r="N8">
-        <v>1.029953256588109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011868539522589</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037968578422602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819996875711182</v>
+        <v>0.9912421973390089</v>
       </c>
       <c r="D9">
-        <v>1.004570368807542</v>
+        <v>1.011193987317762</v>
       </c>
       <c r="E9">
-        <v>0.9942806399514532</v>
+        <v>1.008309371669079</v>
       </c>
       <c r="F9">
-        <v>0.9955034696133176</v>
+        <v>1.017324424749532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039777330276239</v>
+        <v>1.043131877711335</v>
       </c>
       <c r="J9">
-        <v>1.008204497601713</v>
+        <v>1.017108052341097</v>
       </c>
       <c r="K9">
-        <v>1.017589727634116</v>
+        <v>1.024108023559683</v>
       </c>
       <c r="L9">
-        <v>1.007467196386544</v>
+        <v>1.021269058472265</v>
       </c>
       <c r="M9">
-        <v>1.008669923605381</v>
+        <v>1.03014254216712</v>
       </c>
       <c r="N9">
-        <v>1.00963626363098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009197508099759</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032428144804944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9633524281865909</v>
+        <v>0.9828328343875055</v>
       </c>
       <c r="D10">
-        <v>0.9901762068504222</v>
+        <v>1.005155907721506</v>
       </c>
       <c r="E10">
-        <v>0.9774420701428094</v>
+        <v>1.001744249795289</v>
       </c>
       <c r="F10">
-        <v>0.9771495323878188</v>
+        <v>1.011240632501259</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03318644380852</v>
+        <v>1.040758875958084</v>
       </c>
       <c r="J10">
-        <v>0.9930994817066268</v>
+        <v>1.01174452245519</v>
       </c>
       <c r="K10">
-        <v>1.004725127533765</v>
+        <v>1.019432690507713</v>
       </c>
       <c r="L10">
-        <v>0.9922309201027792</v>
+        <v>1.01608208252716</v>
       </c>
       <c r="M10">
-        <v>0.9919439903709325</v>
+        <v>1.025409857038744</v>
       </c>
       <c r="N10">
-        <v>0.9945097968807527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007361105122317</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.02873454303353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9547005541318393</v>
+        <v>0.9800790886131934</v>
       </c>
       <c r="D11">
-        <v>0.9835107369227853</v>
+        <v>1.003237236471515</v>
       </c>
       <c r="E11">
-        <v>0.9696389054678232</v>
+        <v>0.9999839868846212</v>
       </c>
       <c r="F11">
-        <v>0.9686480584733739</v>
+        <v>1.010017996807514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030109118412991</v>
+        <v>1.040073065770864</v>
       </c>
       <c r="J11">
-        <v>0.9860872952326324</v>
+        <v>1.010304742619477</v>
       </c>
       <c r="K11">
-        <v>0.9987504632875979</v>
+        <v>1.01809836038993</v>
       </c>
       <c r="L11">
-        <v>0.9851570362928861</v>
+        <v>1.014906205195822</v>
       </c>
       <c r="M11">
-        <v>0.9841864779008013</v>
+        <v>1.024753429371962</v>
       </c>
       <c r="N11">
-        <v>0.9874876522976563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006984565458788</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028656259373548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513868544188536</v>
+        <v>0.9794307651445058</v>
       </c>
       <c r="D12">
-        <v>0.9809603108305335</v>
+        <v>1.002816326784026</v>
       </c>
       <c r="E12">
-        <v>0.9666519996516981</v>
+        <v>0.9997648520746565</v>
       </c>
       <c r="F12">
-        <v>0.9653943554979033</v>
+        <v>1.010109020102357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028927820121993</v>
+        <v>1.039964123137362</v>
       </c>
       <c r="J12">
-        <v>0.9834012696293943</v>
+        <v>1.010131904181157</v>
       </c>
       <c r="K12">
-        <v>0.9964616035729909</v>
+        <v>1.017889768593474</v>
       </c>
       <c r="L12">
-        <v>0.9824472511669065</v>
+        <v>1.014896558534599</v>
       </c>
       <c r="M12">
-        <v>0.9812159959968814</v>
+        <v>1.025045076537747</v>
       </c>
       <c r="N12">
-        <v>0.9847978122299704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007019567634325</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029216608963512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9521024256871611</v>
+        <v>0.9803637525409916</v>
       </c>
       <c r="D13">
-        <v>0.981510937639019</v>
+        <v>1.003522592065501</v>
       </c>
       <c r="E13">
-        <v>0.9672969182449945</v>
+        <v>1.000720043729401</v>
       </c>
       <c r="F13">
-        <v>0.9660968586449246</v>
+        <v>1.011230733158529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029183029737525</v>
+        <v>1.040298796121686</v>
       </c>
       <c r="J13">
-        <v>0.9839813094124127</v>
+        <v>1.01092729002734</v>
       </c>
       <c r="K13">
-        <v>0.996955885885181</v>
+        <v>1.018538806288109</v>
       </c>
       <c r="L13">
-        <v>0.9830324276197863</v>
+        <v>1.015789474234549</v>
       </c>
       <c r="M13">
-        <v>0.9818574169822684</v>
+        <v>1.026102564921136</v>
       </c>
       <c r="N13">
-        <v>0.9853786757360122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007374435724028</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030331722140841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544287702226203</v>
+        <v>0.9817239628628215</v>
       </c>
       <c r="D14">
-        <v>0.9833015021740816</v>
+        <v>1.004520669509064</v>
       </c>
       <c r="E14">
-        <v>0.969393887616172</v>
+        <v>1.001910642978881</v>
       </c>
       <c r="F14">
-        <v>0.9683811454932592</v>
+        <v>1.012473610407208</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030012282846089</v>
+        <v>1.040730255979056</v>
       </c>
       <c r="J14">
-        <v>0.9858669972084235</v>
+        <v>1.011914091551197</v>
       </c>
       <c r="K14">
-        <v>0.9985627437851788</v>
+        <v>1.01937469090191</v>
       </c>
       <c r="L14">
-        <v>0.9849347922138453</v>
+        <v>1.01681353878793</v>
       </c>
       <c r="M14">
-        <v>0.9839428289752695</v>
+        <v>1.027180730658332</v>
       </c>
       <c r="N14">
-        <v>0.9872670414249846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007763944903766</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031358480178087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558484084930644</v>
+        <v>0.9824046071320047</v>
       </c>
       <c r="D15">
-        <v>0.9843945239420532</v>
+        <v>1.005013512673939</v>
       </c>
       <c r="E15">
-        <v>0.9706737879727805</v>
+        <v>1.002466429556352</v>
       </c>
       <c r="F15">
-        <v>0.9697754392471665</v>
+        <v>1.013018794651801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030517987985253</v>
+        <v>1.040934211660943</v>
       </c>
       <c r="J15">
-        <v>0.9870176918186521</v>
+        <v>1.012372503554734</v>
       </c>
       <c r="K15">
-        <v>0.9995432595896602</v>
+        <v>1.019770091203597</v>
       </c>
       <c r="L15">
-        <v>0.9860956465838878</v>
+        <v>1.017270312188837</v>
       </c>
       <c r="M15">
-        <v>0.9852155355288768</v>
+        <v>1.027628714453431</v>
       </c>
       <c r="N15">
-        <v>0.9884193701535461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007931453316664</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031750321052128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639133923974299</v>
+        <v>0.9857892193888703</v>
       </c>
       <c r="D16">
-        <v>0.9906086857912884</v>
+        <v>1.007435837133625</v>
       </c>
       <c r="E16">
-        <v>0.9779482251720287</v>
+        <v>1.005064808794236</v>
       </c>
       <c r="F16">
-        <v>0.977701057081521</v>
+        <v>1.015410707078766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033385592112513</v>
+        <v>1.04189279513397</v>
       </c>
       <c r="J16">
-        <v>0.9935540737277808</v>
+        <v>1.014499595634524</v>
       </c>
       <c r="K16">
-        <v>1.005112415939538</v>
+        <v>1.021635833519871</v>
       </c>
       <c r="L16">
-        <v>0.9926894952934683</v>
+        <v>1.019306803951197</v>
       </c>
       <c r="M16">
-        <v>0.9924470447660666</v>
+        <v>1.029471304176774</v>
       </c>
       <c r="N16">
-        <v>0.9949650344747194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008642243284044</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033167756396306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.968809258568393</v>
+        <v>0.9876730649597349</v>
       </c>
       <c r="D17">
-        <v>0.9943846898176215</v>
+        <v>1.008771481426271</v>
       </c>
       <c r="E17">
-        <v>0.9823668281481353</v>
+        <v>1.006435415675264</v>
       </c>
       <c r="F17">
-        <v>0.9825161545504346</v>
+        <v>1.016589956515515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035121550557787</v>
+        <v>1.042398425195626</v>
       </c>
       <c r="J17">
-        <v>0.9975211645694649</v>
+        <v>1.015613332124129</v>
       </c>
       <c r="K17">
-        <v>1.008491897364931</v>
+        <v>1.022627443081264</v>
       </c>
       <c r="L17">
-        <v>0.9966912597415368</v>
+        <v>1.020331541835943</v>
       </c>
       <c r="M17">
-        <v>0.9968378445854136</v>
+        <v>1.030313224753276</v>
       </c>
       <c r="N17">
-        <v>0.9989377590404303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008983143864982</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033703461225334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716102464648562</v>
+        <v>0.9884272359235972</v>
       </c>
       <c r="D18">
-        <v>0.9965461627525313</v>
+        <v>1.009283375798628</v>
       </c>
       <c r="E18">
-        <v>0.9848956263691301</v>
+        <v>1.006841758220495</v>
       </c>
       <c r="F18">
-        <v>0.985272239409818</v>
+        <v>1.016774946903528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036112911400465</v>
+        <v>1.042557149248654</v>
       </c>
       <c r="J18">
-        <v>0.9997904165685162</v>
+        <v>1.015934692088432</v>
       </c>
       <c r="K18">
-        <v>1.01042478144192</v>
+        <v>1.022943767264843</v>
       </c>
       <c r="L18">
-        <v>0.99898027590428</v>
+        <v>1.020543429877867</v>
       </c>
       <c r="M18">
-        <v>0.9993501298284584</v>
+        <v>1.030310271699623</v>
       </c>
       <c r="N18">
-        <v>1.001210233637607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009025982024538</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033461903430302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725563913130267</v>
+        <v>0.9881538222695978</v>
       </c>
       <c r="D19">
-        <v>0.997276471594282</v>
+        <v>1.009046086572979</v>
       </c>
       <c r="E19">
-        <v>0.9857499661253616</v>
+        <v>1.00636482632251</v>
       </c>
       <c r="F19">
-        <v>0.9862034316534682</v>
+        <v>1.016043875042829</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036447470926946</v>
+        <v>1.04240265470147</v>
       </c>
       <c r="J19">
-        <v>1.000556877168122</v>
+        <v>1.015534663491531</v>
       </c>
       <c r="K19">
-        <v>1.011077586024649</v>
+        <v>1.022646762750227</v>
       </c>
       <c r="L19">
-        <v>0.9997534005410762</v>
+        <v>1.020010632725064</v>
       </c>
       <c r="M19">
-        <v>1.000198790581771</v>
+        <v>1.029528209969259</v>
       </c>
       <c r="N19">
-        <v>1.001977782699178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008801288619944</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03251551296787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9682897216008648</v>
+        <v>0.9850246175351866</v>
       </c>
       <c r="D20">
-        <v>0.9939838643543212</v>
+        <v>1.00672939201558</v>
       </c>
       <c r="E20">
-        <v>0.9818978457348085</v>
+        <v>1.003454182174405</v>
       </c>
       <c r="F20">
-        <v>0.9820050509421123</v>
+        <v>1.012826254393936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034937521455438</v>
+        <v>1.041383650648107</v>
       </c>
       <c r="J20">
-        <v>0.9971002240780984</v>
+        <v>1.013145275500478</v>
       </c>
       <c r="K20">
-        <v>1.008133331631634</v>
+        <v>1.020654936331768</v>
       </c>
       <c r="L20">
-        <v>0.9962666474577404</v>
+        <v>1.017436564668266</v>
       </c>
       <c r="M20">
-        <v>0.9963718762005589</v>
+        <v>1.026647257636434</v>
       </c>
       <c r="N20">
-        <v>0.9985162207652837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007841397053466</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029703152998385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.953746601987805</v>
+        <v>0.978478305260466</v>
       </c>
       <c r="D21">
-        <v>0.9827763717254682</v>
+        <v>1.002021446397959</v>
       </c>
       <c r="E21">
-        <v>0.9687789302212311</v>
+        <v>0.9982866909605542</v>
       </c>
       <c r="F21">
-        <v>0.9677112423947478</v>
+        <v>1.00796572167271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029769186956081</v>
+        <v>1.039488877984279</v>
       </c>
       <c r="J21">
-        <v>0.9853140523555453</v>
+        <v>1.008904236246223</v>
       </c>
       <c r="K21">
-        <v>0.9980915668732925</v>
+        <v>1.016964622793991</v>
       </c>
       <c r="L21">
-        <v>0.9843769607289947</v>
+        <v>1.01330059536966</v>
       </c>
       <c r="M21">
-        <v>0.9833312902753738</v>
+        <v>1.022797736350618</v>
       </c>
       <c r="N21">
-        <v>0.9867133113269916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006367408803468</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026615133072904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9440151759695858</v>
+        <v>0.9743099866732349</v>
       </c>
       <c r="D22">
-        <v>0.9752918660415961</v>
+        <v>0.9990298281152031</v>
       </c>
       <c r="E22">
-        <v>0.9600109286586536</v>
+        <v>0.9950301631924506</v>
       </c>
       <c r="F22">
-        <v>0.9581609051100723</v>
+        <v>1.004933032887798</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026295238794055</v>
+        <v>1.03827320422649</v>
       </c>
       <c r="J22">
-        <v>0.9774256213316469</v>
+        <v>1.006220668048957</v>
       </c>
       <c r="K22">
-        <v>0.9913692175271461</v>
+        <v>1.014620528830946</v>
       </c>
       <c r="L22">
-        <v>0.9764184982094692</v>
+        <v>1.010700720639071</v>
       </c>
       <c r="M22">
-        <v>0.9746094047878694</v>
+        <v>1.02040739479127</v>
       </c>
       <c r="N22">
-        <v>0.9788136778262236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005441091625635</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024723297992006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9492349529252785</v>
+        <v>0.976530791200292</v>
       </c>
       <c r="D23">
-        <v>0.9793048462906637</v>
+        <v>1.000623413767499</v>
       </c>
       <c r="E23">
-        <v>0.9647128500928783</v>
+        <v>0.9967641740653927</v>
       </c>
       <c r="F23">
-        <v>0.9632821257587105</v>
+        <v>1.006547380121874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028159969708173</v>
+        <v>1.038922325078686</v>
       </c>
       <c r="J23">
-        <v>0.9816569181184641</v>
+        <v>1.007650633433217</v>
       </c>
       <c r="K23">
-        <v>0.9949751231981006</v>
+        <v>1.015870005409878</v>
       </c>
       <c r="L23">
-        <v>0.9806874328019685</v>
+        <v>1.012085702151726</v>
       </c>
       <c r="M23">
-        <v>0.9792872029964761</v>
+        <v>1.021680405831843</v>
       </c>
       <c r="N23">
-        <v>0.9830509835398148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005934715329461</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025730822835283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9685246460236672</v>
+        <v>0.9850347846607534</v>
       </c>
       <c r="D24">
-        <v>0.9941651061476803</v>
+        <v>1.006731316687827</v>
       </c>
       <c r="E24">
-        <v>0.9821099077265795</v>
+        <v>1.003425446958456</v>
       </c>
       <c r="F24">
-        <v>0.9822361579147739</v>
+        <v>1.012759206626445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035020741438905</v>
+        <v>1.041376316394442</v>
       </c>
       <c r="J24">
-        <v>0.9972905662838984</v>
+        <v>1.013121332413191</v>
       </c>
       <c r="K24">
-        <v>1.008295469790899</v>
+        <v>1.02064124512808</v>
       </c>
       <c r="L24">
-        <v>0.9964586502028732</v>
+        <v>1.017392673766669</v>
       </c>
       <c r="M24">
-        <v>0.9965825771921696</v>
+        <v>1.026565900968302</v>
       </c>
       <c r="N24">
-        <v>0.998706833278848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007822570370397</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029597435185972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887892663133099</v>
+        <v>0.9944496613374292</v>
       </c>
       <c r="D25">
-        <v>1.009819503631593</v>
+        <v>1.013500784922451</v>
       </c>
       <c r="E25">
-        <v>1.000417963656832</v>
+        <v>1.010840218021297</v>
       </c>
       <c r="F25">
-        <v>1.002196817739361</v>
+        <v>1.01969391454792</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042159917089221</v>
+        <v>1.04402562779824</v>
       </c>
       <c r="J25">
-        <v>1.013699897535288</v>
+        <v>1.019165271252562</v>
       </c>
       <c r="K25">
-        <v>1.022267273178122</v>
+        <v>1.025893072335579</v>
       </c>
       <c r="L25">
-        <v>1.013009794741011</v>
+        <v>1.02327255238244</v>
       </c>
       <c r="M25">
-        <v>1.014761126395782</v>
+        <v>1.031994011141909</v>
       </c>
       <c r="N25">
-        <v>1.015139467662791</v>
+        <v>1.009906656043728</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03389347348365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001630357650617</v>
+        <v>1.002024475897793</v>
       </c>
       <c r="D2">
-        <v>1.018665877677289</v>
+        <v>1.018732476199692</v>
       </c>
       <c r="E2">
-        <v>1.01652438904007</v>
+        <v>1.016866861729254</v>
       </c>
       <c r="F2">
-        <v>1.025025670009779</v>
+        <v>1.025295753214373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045989332817624</v>
+        <v>1.046023138443641</v>
       </c>
       <c r="J2">
-        <v>1.023762414110451</v>
+        <v>1.024144803387822</v>
       </c>
       <c r="K2">
-        <v>1.029871150666076</v>
+        <v>1.029936863640395</v>
       </c>
       <c r="L2">
-        <v>1.0277582146882</v>
+        <v>1.028096111012985</v>
       </c>
       <c r="M2">
-        <v>1.036147028669145</v>
+        <v>1.036413577132591</v>
       </c>
       <c r="N2">
-        <v>1.011490300832118</v>
+        <v>1.013374554692414</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037180331250457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037391287433954</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02005454964467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00667006387934</v>
+        <v>1.006687471226932</v>
       </c>
       <c r="D3">
-        <v>1.022290393668436</v>
+        <v>1.021927168977923</v>
       </c>
       <c r="E3">
-        <v>1.020529179470102</v>
+        <v>1.02056419981332</v>
       </c>
       <c r="F3">
-        <v>1.028790943975523</v>
+        <v>1.028814080431701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047333226237769</v>
+        <v>1.047148651252619</v>
       </c>
       <c r="J3">
-        <v>1.026980533147521</v>
+        <v>1.026997474470327</v>
       </c>
       <c r="K3">
-        <v>1.032645792677641</v>
+        <v>1.032286969046559</v>
       </c>
       <c r="L3">
-        <v>1.030905954784528</v>
+        <v>1.030940549183605</v>
       </c>
       <c r="M3">
-        <v>1.039068229829683</v>
+        <v>1.039091090454941</v>
       </c>
       <c r="N3">
-        <v>1.012597859979559</v>
+        <v>1.014152367219485</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039492273078218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039510365755463</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020577039457482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009855456598936</v>
+        <v>1.009638369731405</v>
       </c>
       <c r="D4">
-        <v>1.024580508598416</v>
+        <v>1.023948172461059</v>
       </c>
       <c r="E4">
-        <v>1.023067175251825</v>
+        <v>1.0229106163618</v>
       </c>
       <c r="F4">
-        <v>1.031181140640337</v>
+        <v>1.031050516090458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048166312395304</v>
+        <v>1.047844757810291</v>
       </c>
       <c r="J4">
-        <v>1.029010374977265</v>
+        <v>1.028798697638901</v>
       </c>
       <c r="K4">
-        <v>1.034391050921566</v>
+        <v>1.033765906903256</v>
       </c>
       <c r="L4">
-        <v>1.032894948340273</v>
+        <v>1.032740175614755</v>
       </c>
       <c r="M4">
-        <v>1.040917256462924</v>
+        <v>1.040788093412942</v>
       </c>
       <c r="N4">
-        <v>1.013295936172237</v>
+        <v>1.014643255431476</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040955654246143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040853430409543</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020902984832153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011177172741773</v>
+        <v>1.010863592340332</v>
       </c>
       <c r="D5">
-        <v>1.025530479935734</v>
+        <v>1.02478705905663</v>
       </c>
       <c r="E5">
-        <v>1.024121826889564</v>
+        <v>1.023886395879622</v>
       </c>
       <c r="F5">
-        <v>1.032175323585389</v>
+        <v>1.031981421851513</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048507997646085</v>
+        <v>1.048129840541787</v>
       </c>
       <c r="J5">
-        <v>1.029851561263368</v>
+        <v>1.029545556379358</v>
       </c>
       <c r="K5">
-        <v>1.035113109989371</v>
+        <v>1.034377916131574</v>
       </c>
       <c r="L5">
-        <v>1.033720058167643</v>
+        <v>1.033487239770829</v>
       </c>
       <c r="M5">
-        <v>1.04168506494457</v>
+        <v>1.041493273841666</v>
       </c>
       <c r="N5">
-        <v>1.013585094317724</v>
+        <v>1.014846737377264</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041563322539947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041411532948782</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021037171289747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011398092179042</v>
+        <v>1.011068428927541</v>
       </c>
       <c r="D6">
-        <v>1.025689245886082</v>
+        <v>1.024927290579352</v>
       </c>
       <c r="E6">
-        <v>1.024298197773218</v>
+        <v>1.024049618950731</v>
       </c>
       <c r="F6">
-        <v>1.032341637704355</v>
+        <v>1.032137189222835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048564872516206</v>
+        <v>1.048177267829596</v>
       </c>
       <c r="J6">
-        <v>1.029992098575808</v>
+        <v>1.029670357620424</v>
       </c>
       <c r="K6">
-        <v>1.035233673722629</v>
+        <v>1.034480111424011</v>
       </c>
       <c r="L6">
-        <v>1.033857959699952</v>
+        <v>1.033612126456042</v>
       </c>
       <c r="M6">
-        <v>1.041813434454163</v>
+        <v>1.041611201043521</v>
       </c>
       <c r="N6">
-        <v>1.013633396165525</v>
+        <v>1.014880735907811</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041664918243149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041504864298407</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021059537029178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009873185017564</v>
+        <v>1.009666374687709</v>
       </c>
       <c r="D7">
-        <v>1.024593251890368</v>
+        <v>1.023968139717359</v>
       </c>
       <c r="E7">
-        <v>1.023081315389272</v>
+        <v>1.022933695990036</v>
       </c>
       <c r="F7">
-        <v>1.031194466314534</v>
+        <v>1.031070886951012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048170911333031</v>
+        <v>1.047853028951092</v>
       </c>
       <c r="J7">
-        <v>1.029021662202282</v>
+        <v>1.028820003127144</v>
       </c>
       <c r="K7">
-        <v>1.034400744425287</v>
+        <v>1.033782739552493</v>
       </c>
       <c r="L7">
-        <v>1.03290601647817</v>
+        <v>1.032760080615513</v>
       </c>
       <c r="M7">
-        <v>1.040927552939481</v>
+        <v>1.040805355733913</v>
       </c>
       <c r="N7">
-        <v>1.013299816688874</v>
+        <v>1.014675797165786</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040963803211786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040867092372363</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020907549946875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003349634882459</v>
+        <v>1.00365027266311</v>
       </c>
       <c r="D8">
-        <v>1.019902487109767</v>
+        <v>1.019848968235193</v>
       </c>
       <c r="E8">
-        <v>1.017889159748525</v>
+        <v>1.018157219078484</v>
       </c>
       <c r="F8">
-        <v>1.026307974028477</v>
+        <v>1.026517817790062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I8">
-        <v>1.046451186928521</v>
+        <v>1.04642401059717</v>
       </c>
       <c r="J8">
-        <v>1.024861115549544</v>
+        <v>1.025153115568075</v>
       </c>
       <c r="K8">
-        <v>1.030819449754816</v>
+        <v>1.030766620903409</v>
       </c>
       <c r="L8">
-        <v>1.028832142932834</v>
+        <v>1.029096730392938</v>
       </c>
       <c r="M8">
-        <v>1.037142999273719</v>
+        <v>1.037350180365499</v>
       </c>
       <c r="N8">
-        <v>1.011868539522589</v>
+        <v>1.013731056700168</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037968578422602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038132548925362</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020242300344277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912421973390089</v>
+        <v>0.9924773528175848</v>
       </c>
       <c r="D9">
-        <v>1.011193987317762</v>
+        <v>1.012194114691719</v>
       </c>
       <c r="E9">
-        <v>1.008309371669079</v>
+        <v>1.009338983604705</v>
       </c>
       <c r="F9">
-        <v>1.017324424749532</v>
+        <v>1.018146648573993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043131877711335</v>
+        <v>1.043638470573182</v>
       </c>
       <c r="J9">
-        <v>1.017108052341097</v>
+        <v>1.018298580734256</v>
       </c>
       <c r="K9">
-        <v>1.024108023559683</v>
+        <v>1.025092401124525</v>
       </c>
       <c r="L9">
-        <v>1.021269058472265</v>
+        <v>1.022282337905427</v>
       </c>
       <c r="M9">
-        <v>1.03014254216712</v>
+        <v>1.030952013436087</v>
       </c>
       <c r="N9">
-        <v>1.009197508099759</v>
+        <v>1.011871248988781</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032428144804944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033068794029025</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018965107238668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828328343875055</v>
+        <v>0.9847904645255182</v>
       </c>
       <c r="D10">
-        <v>1.005155907721506</v>
+        <v>1.006941334519197</v>
       </c>
       <c r="E10">
-        <v>1.001744249795289</v>
+        <v>1.003362310821472</v>
       </c>
       <c r="F10">
-        <v>1.011240632501259</v>
+        <v>1.012536299220927</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040758875958084</v>
+        <v>1.041661771130762</v>
       </c>
       <c r="J10">
-        <v>1.01174452245519</v>
+        <v>1.013620800081214</v>
       </c>
       <c r="K10">
-        <v>1.019432690507713</v>
+        <v>1.021186381907742</v>
       </c>
       <c r="L10">
-        <v>1.01608208252716</v>
+        <v>1.017671121922038</v>
       </c>
       <c r="M10">
-        <v>1.025409857038744</v>
+        <v>1.026682836796597</v>
       </c>
       <c r="N10">
-        <v>1.007361105122317</v>
+        <v>1.010725661306886</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02873454303353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029741972991997</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018081185832356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9800790886131934</v>
+        <v>0.9823201497396654</v>
       </c>
       <c r="D11">
-        <v>1.003237236471515</v>
+        <v>1.005312325121352</v>
       </c>
       <c r="E11">
-        <v>0.9999839868846212</v>
+        <v>1.001825568742122</v>
       </c>
       <c r="F11">
-        <v>1.010017996807514</v>
+        <v>1.011493582280004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040073065770864</v>
+        <v>1.041121742063978</v>
       </c>
       <c r="J11">
-        <v>1.010304742619477</v>
+        <v>1.012447386896271</v>
       </c>
       <c r="K11">
-        <v>1.01809836038993</v>
+        <v>1.020134749350597</v>
       </c>
       <c r="L11">
-        <v>1.014906205195822</v>
+        <v>1.016713139433911</v>
       </c>
       <c r="M11">
-        <v>1.024753429371962</v>
+        <v>1.026201953410946</v>
       </c>
       <c r="N11">
-        <v>1.006984565458788</v>
+        <v>1.010720892750658</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028656259373548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029802025331278</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017894043061856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9794307651445058</v>
+        <v>0.9817358753364749</v>
       </c>
       <c r="D12">
-        <v>1.002816326784026</v>
+        <v>1.004956014903558</v>
       </c>
       <c r="E12">
-        <v>0.9997648520746565</v>
+        <v>1.001650612618262</v>
       </c>
       <c r="F12">
-        <v>1.010109020102357</v>
+        <v>1.011620817680218</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039964123137362</v>
+        <v>1.041045192491411</v>
       </c>
       <c r="J12">
-        <v>1.010131904181157</v>
+        <v>1.01233383663709</v>
       </c>
       <c r="K12">
-        <v>1.017889768593474</v>
+        <v>1.019988877476235</v>
       </c>
       <c r="L12">
-        <v>1.014896558534599</v>
+        <v>1.016746257672024</v>
       </c>
       <c r="M12">
-        <v>1.025045076537747</v>
+        <v>1.026528717034193</v>
       </c>
       <c r="N12">
-        <v>1.007019567634325</v>
+        <v>1.010855463761073</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029216608963512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030389746771543</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017897387052308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9803637525409916</v>
+        <v>0.9825510690809169</v>
       </c>
       <c r="D13">
-        <v>1.003522592065501</v>
+        <v>1.005545053828091</v>
       </c>
       <c r="E13">
-        <v>1.000720043729401</v>
+        <v>1.002501297360201</v>
       </c>
       <c r="F13">
-        <v>1.011230733158529</v>
+        <v>1.012659799602076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040298796121686</v>
+        <v>1.041320715301906</v>
       </c>
       <c r="J13">
-        <v>1.01092729002734</v>
+        <v>1.013017309929332</v>
       </c>
       <c r="K13">
-        <v>1.018538806288109</v>
+        <v>1.020523105177437</v>
       </c>
       <c r="L13">
-        <v>1.015789474234549</v>
+        <v>1.017536859419979</v>
       </c>
       <c r="M13">
-        <v>1.026102564921136</v>
+        <v>1.027505178115574</v>
       </c>
       <c r="N13">
-        <v>1.007374435724028</v>
+        <v>1.011068608813918</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030331722140841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03144050761181</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018046868295599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9817239628628215</v>
+        <v>0.9837494895625771</v>
       </c>
       <c r="D14">
-        <v>1.004520669509064</v>
+        <v>1.006381513578867</v>
       </c>
       <c r="E14">
-        <v>1.001910642978881</v>
+        <v>1.003554615964291</v>
       </c>
       <c r="F14">
-        <v>1.012473610407208</v>
+        <v>1.013793395853084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040730255979056</v>
+        <v>1.041670694525741</v>
       </c>
       <c r="J14">
-        <v>1.011914091551197</v>
+        <v>1.013850936708757</v>
       </c>
       <c r="K14">
-        <v>1.01937469090191</v>
+        <v>1.021200891379905</v>
       </c>
       <c r="L14">
-        <v>1.01681353878793</v>
+        <v>1.018426688643847</v>
       </c>
       <c r="M14">
-        <v>1.027180730658332</v>
+        <v>1.028476428138847</v>
       </c>
       <c r="N14">
-        <v>1.007763944903766</v>
+        <v>1.011253175603956</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031358480178087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032382607847846</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018216779169427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9824046071320047</v>
+        <v>0.9843520344301303</v>
       </c>
       <c r="D15">
-        <v>1.005013512673939</v>
+        <v>1.00679596959374</v>
       </c>
       <c r="E15">
-        <v>1.002466429556352</v>
+        <v>1.004045587074787</v>
       </c>
       <c r="F15">
-        <v>1.013018794651801</v>
+        <v>1.01428679187799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040934211660943</v>
+        <v>1.041835137715118</v>
       </c>
       <c r="J15">
-        <v>1.012372503554734</v>
+        <v>1.014235466329824</v>
       </c>
       <c r="K15">
-        <v>1.019770091203597</v>
+        <v>1.021519630062866</v>
       </c>
       <c r="L15">
-        <v>1.017270312188837</v>
+        <v>1.018820104922777</v>
       </c>
       <c r="M15">
-        <v>1.027628714453431</v>
+        <v>1.028873757803454</v>
       </c>
       <c r="N15">
-        <v>1.007931453316664</v>
+        <v>1.011320943862911</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031750321052128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032734385425185</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01829215626639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857892193888703</v>
+        <v>0.9873737426040238</v>
       </c>
       <c r="D16">
-        <v>1.007435837133625</v>
+        <v>1.00884858616237</v>
       </c>
       <c r="E16">
-        <v>1.005064808794236</v>
+        <v>1.006349045242332</v>
       </c>
       <c r="F16">
-        <v>1.015410707078766</v>
+        <v>1.016442055375542</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04189279513397</v>
+        <v>1.042607319535034</v>
       </c>
       <c r="J16">
-        <v>1.014499595634524</v>
+        <v>1.016019005683373</v>
       </c>
       <c r="K16">
-        <v>1.021635833519871</v>
+        <v>1.023023679740636</v>
       </c>
       <c r="L16">
-        <v>1.019306803951197</v>
+        <v>1.020568260447846</v>
       </c>
       <c r="M16">
-        <v>1.029471304176774</v>
+        <v>1.030484831286662</v>
       </c>
       <c r="N16">
-        <v>1.008642243284044</v>
+        <v>1.011579982384965</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033167756396306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.033968857239244</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018626976314725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9876730649597349</v>
+        <v>0.9890771607173962</v>
       </c>
       <c r="D17">
-        <v>1.008771481426271</v>
+        <v>1.009994869345483</v>
       </c>
       <c r="E17">
-        <v>1.006435415675264</v>
+        <v>1.007575712142126</v>
       </c>
       <c r="F17">
-        <v>1.016589956515515</v>
+        <v>1.017505335885597</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042398425195626</v>
+        <v>1.043017425576456</v>
       </c>
       <c r="J17">
-        <v>1.015613332124129</v>
+        <v>1.016961656772751</v>
       </c>
       <c r="K17">
-        <v>1.022627443081264</v>
+        <v>1.023829892782227</v>
       </c>
       <c r="L17">
-        <v>1.020331541835943</v>
+        <v>1.02145220284828</v>
       </c>
       <c r="M17">
-        <v>1.030313224753276</v>
+        <v>1.031213240408948</v>
       </c>
       <c r="N17">
-        <v>1.008983143864982</v>
+        <v>1.011712271423389</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033703461225334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.034414913331878</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018795961103351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9884272359235972</v>
+        <v>0.9897755450518463</v>
       </c>
       <c r="D18">
-        <v>1.009283375798628</v>
+        <v>1.010444063737806</v>
       </c>
       <c r="E18">
-        <v>1.006841758220495</v>
+        <v>1.007941750693728</v>
       </c>
       <c r="F18">
-        <v>1.016774946903528</v>
+        <v>1.01765717974113</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042557149248654</v>
+        <v>1.043144557557977</v>
       </c>
       <c r="J18">
-        <v>1.015934692088432</v>
+        <v>1.017230463602693</v>
       </c>
       <c r="K18">
-        <v>1.022943767264843</v>
+        <v>1.024084921772847</v>
       </c>
       <c r="L18">
-        <v>1.020543429877867</v>
+        <v>1.021624792943641</v>
       </c>
       <c r="M18">
-        <v>1.030310271699623</v>
+        <v>1.031177932201846</v>
       </c>
       <c r="N18">
-        <v>1.009025982024538</v>
+        <v>1.01169892026408</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033461903430302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.03414792383256</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018829499981336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9881538222695978</v>
+        <v>0.9895510772444245</v>
       </c>
       <c r="D19">
-        <v>1.009046086572979</v>
+        <v>1.010253154493274</v>
       </c>
       <c r="E19">
-        <v>1.00636482632251</v>
+        <v>1.007511641364462</v>
       </c>
       <c r="F19">
-        <v>1.016043875042829</v>
+        <v>1.016962700315615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04240265470147</v>
+        <v>1.043013572831609</v>
       </c>
       <c r="J19">
-        <v>1.015534663491531</v>
+        <v>1.016877754523196</v>
       </c>
       <c r="K19">
-        <v>1.022646762750227</v>
+        <v>1.023833614412345</v>
       </c>
       <c r="L19">
-        <v>1.020010632725064</v>
+        <v>1.021138106980309</v>
       </c>
       <c r="M19">
-        <v>1.029528209969259</v>
+        <v>1.030431912324233</v>
       </c>
       <c r="N19">
-        <v>1.008801288619944</v>
+        <v>1.011534006124344</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03251551296787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.033230266945387</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018738355374483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9850246175351866</v>
+        <v>0.9867587747171574</v>
       </c>
       <c r="D20">
-        <v>1.00672939201558</v>
+        <v>1.008283520199617</v>
       </c>
       <c r="E20">
-        <v>1.003454182174405</v>
+        <v>1.004888408807661</v>
       </c>
       <c r="F20">
-        <v>1.012826254393936</v>
+        <v>1.013974449078623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041383650648107</v>
+        <v>1.042169904222485</v>
       </c>
       <c r="J20">
-        <v>1.013145275500478</v>
+        <v>1.01480984157956</v>
       </c>
       <c r="K20">
-        <v>1.020654936331768</v>
+        <v>1.022182261111816</v>
       </c>
       <c r="L20">
-        <v>1.017436564668266</v>
+        <v>1.018845842634913</v>
       </c>
       <c r="M20">
-        <v>1.026647257636434</v>
+        <v>1.027775946154231</v>
       </c>
       <c r="N20">
-        <v>1.007841397053466</v>
+        <v>1.010945402640432</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029703152998385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.030596402139153</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018305405156762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.978478305260466</v>
+        <v>0.9809553703833781</v>
       </c>
       <c r="D21">
-        <v>1.002021446397959</v>
+        <v>1.004324508358153</v>
       </c>
       <c r="E21">
-        <v>0.9982866909605542</v>
+        <v>1.000337587121823</v>
       </c>
       <c r="F21">
-        <v>1.00796572167271</v>
+        <v>1.009607614311793</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039488877984279</v>
+        <v>1.040652631606667</v>
       </c>
       <c r="J21">
-        <v>1.008904236246223</v>
+        <v>1.01127149833945</v>
       </c>
       <c r="K21">
-        <v>1.016964622793991</v>
+        <v>1.019224412172368</v>
       </c>
       <c r="L21">
-        <v>1.01330059536966</v>
+        <v>1.015312566633263</v>
       </c>
       <c r="M21">
-        <v>1.022797736350618</v>
+        <v>1.024409225291304</v>
       </c>
       <c r="N21">
-        <v>1.006367408803468</v>
+        <v>1.010411188042298</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026615133072904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.027890542540797</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017634402744299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9743099866732349</v>
+        <v>0.9772641595186012</v>
       </c>
       <c r="D22">
-        <v>0.9990298281152031</v>
+        <v>1.001812771388703</v>
       </c>
       <c r="E22">
-        <v>0.9950301631924506</v>
+        <v>0.9974766900169802</v>
       </c>
       <c r="F22">
-        <v>1.004933032887798</v>
+        <v>1.006891758704145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03827320422649</v>
+        <v>1.039678390742993</v>
       </c>
       <c r="J22">
-        <v>1.006220668048957</v>
+        <v>1.00903573349477</v>
       </c>
       <c r="K22">
-        <v>1.014620528830946</v>
+        <v>1.017348402258074</v>
       </c>
       <c r="L22">
-        <v>1.010700720639071</v>
+        <v>1.013098300451957</v>
       </c>
       <c r="M22">
-        <v>1.02040739479127</v>
+        <v>1.022327913757428</v>
       </c>
       <c r="N22">
-        <v>1.005441091625635</v>
+        <v>1.01007380266629</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024723297992006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.026243292541948</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017209287002381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.976530791200292</v>
+        <v>0.9792106803972681</v>
       </c>
       <c r="D23">
-        <v>1.000623413767499</v>
+        <v>1.003135218047468</v>
       </c>
       <c r="E23">
-        <v>0.9967641740653927</v>
+        <v>0.9989821401230842</v>
       </c>
       <c r="F23">
-        <v>1.006547380121874</v>
+        <v>1.008323344371971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038922325078686</v>
+        <v>1.040191109840809</v>
       </c>
       <c r="J23">
-        <v>1.007650633433217</v>
+        <v>1.010208282976442</v>
       </c>
       <c r="K23">
-        <v>1.015870005409878</v>
+        <v>1.018333442482052</v>
       </c>
       <c r="L23">
-        <v>1.012085702151726</v>
+        <v>1.014260508300446</v>
       </c>
       <c r="M23">
-        <v>1.021680405831843</v>
+        <v>1.023422663643999</v>
       </c>
       <c r="N23">
-        <v>1.005934715329461</v>
+        <v>1.010207255795453</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025730822835283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.027109730721025</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017431152022812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9850347846607534</v>
+        <v>0.9867709650723391</v>
       </c>
       <c r="D24">
-        <v>1.006731316687827</v>
+        <v>1.008286964895186</v>
       </c>
       <c r="E24">
-        <v>1.003425446958456</v>
+        <v>1.004862238208806</v>
       </c>
       <c r="F24">
-        <v>1.012759206626445</v>
+        <v>1.013909372694785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041376316394442</v>
+        <v>1.042163352501103</v>
       </c>
       <c r="J24">
-        <v>1.013121332413191</v>
+        <v>1.014787941009785</v>
       </c>
       <c r="K24">
-        <v>1.02064124512808</v>
+        <v>1.022170098420043</v>
       </c>
       <c r="L24">
-        <v>1.017392673766669</v>
+        <v>1.018804502159899</v>
       </c>
       <c r="M24">
-        <v>1.026565900968302</v>
+        <v>1.027696549190573</v>
       </c>
       <c r="N24">
-        <v>1.007822570370397</v>
+        <v>1.010928466043759</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029597435185972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.030492280677425</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018297933078194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9944496613374292</v>
+        <v>0.9954188221700526</v>
       </c>
       <c r="D25">
-        <v>1.013500784922451</v>
+        <v>1.014208098107854</v>
       </c>
       <c r="E25">
-        <v>1.010840218021297</v>
+        <v>1.011652583203263</v>
       </c>
       <c r="F25">
-        <v>1.01969391454792</v>
+        <v>1.020341501416525</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04402562779824</v>
+        <v>1.044384130662354</v>
       </c>
       <c r="J25">
-        <v>1.019165271252562</v>
+        <v>1.020101350969178</v>
       </c>
       <c r="K25">
-        <v>1.025893072335579</v>
+        <v>1.026589784004474</v>
       </c>
       <c r="L25">
-        <v>1.02327255238244</v>
+        <v>1.024072661368799</v>
       </c>
       <c r="M25">
-        <v>1.031994011141909</v>
+        <v>1.032632040140686</v>
       </c>
       <c r="N25">
-        <v>1.009906656043728</v>
+        <v>1.012328880279336</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03389347348365</v>
+        <v>1.034398435161041</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019303676663952</v>
       </c>
     </row>
   </sheetData>
